--- a/nyse stocks industies.xlsx
+++ b/nyse stocks industies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lewis\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13133CEB-0800-42CB-A3D5-839D206A7778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{159E900F-A0BD-41D5-B795-B98E5CF5F79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{805A65C9-5793-46A0-864E-0F07CEF622CE}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{805A65C9-5793-46A0-864E-0F07CEF622CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,37 +71,37 @@
     <t>Utilities</t>
   </si>
   <si>
-    <t>WA</t>
-  </si>
-  <si>
-    <t>DW</t>
-  </si>
-  <si>
-    <t>WDW</t>
-  </si>
-  <si>
-    <t>AS</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>DF</t>
-  </si>
-  <si>
-    <t>VS</t>
-  </si>
-  <si>
-    <t>GSS</t>
-  </si>
-  <si>
-    <t>SDW</t>
-  </si>
-  <si>
-    <t>FG</t>
-  </si>
-  <si>
-    <t>AKL</t>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>SPG</t>
+  </si>
+  <si>
+    <t>LMT</t>
+  </si>
+  <si>
+    <t>BRK-B</t>
+  </si>
+  <si>
+    <t>XOM</t>
+  </si>
+  <si>
+    <t>MCD</t>
+  </si>
+  <si>
+    <t>VZ</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>LLY</t>
   </si>
 </sst>
 </file>
@@ -476,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB93509F-2A78-4C8D-A244-3FCDE7F0D5D2}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,37 +522,37 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
